--- a/TEMOA_Europe_Results/1_Results_bau/_5_Final_consumption.xlsx
+++ b/TEMOA_Europe_Results/1_Results_bau/_5_Final_consumption.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="141">
   <si>
     <t>tech</t>
   </si>
@@ -89,9 +89,6 @@
     <t>ELC_FT_SOL_CSP</t>
   </si>
   <si>
-    <t>ELC_FT_WAV</t>
-  </si>
-  <si>
     <t>ELC_FT_TDL</t>
   </si>
   <si>
@@ -251,9 +248,6 @@
     <t>TRA_FT_AMM_INT_ELCSYS_CU</t>
   </si>
   <si>
-    <t>TRA_FT_AMM_INT_ELCSYS_DT</t>
-  </si>
-  <si>
     <t>IND_FT_NGA</t>
   </si>
   <si>
@@ -378,9 +372,6 @@
   </si>
   <si>
     <t>RNW_POT_SOL_CSP</t>
-  </si>
-  <si>
-    <t>RNW_POT_WAV</t>
   </si>
   <si>
     <t>RNW_POT_TDL</t>
@@ -804,7 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L137"/>
+  <dimension ref="A1:L133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -853,34 +844,34 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D2">
-        <v>219.1840711636701</v>
+        <v>220.1636215110797</v>
       </c>
       <c r="E2">
-        <v>219.1840711636701</v>
+        <v>220.1636215110798</v>
       </c>
       <c r="F2">
-        <v>219.1840711636702</v>
+        <v>220.1636215110797</v>
       </c>
       <c r="G2">
-        <v>174.4892420421397</v>
+        <v>174.3159841649546</v>
       </c>
       <c r="H2">
-        <v>158.7711373250531</v>
+        <v>158.2606606968476</v>
       </c>
       <c r="I2">
-        <v>146.3463024733452</v>
+        <v>145.6864909612589</v>
       </c>
       <c r="J2">
-        <v>136.8772056037834</v>
+        <v>136.1997142981639</v>
       </c>
       <c r="K2">
-        <v>134.706867809582</v>
+        <v>134.1011311707061</v>
       </c>
       <c r="L2">
-        <v>115.4216518155845</v>
+        <v>115.777586677332</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -891,34 +882,34 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1428661437572039</v>
+        <v>0.1428661437577577</v>
       </c>
       <c r="F3">
         <v>0.1428661437572329</v>
       </c>
       <c r="G3">
-        <v>9.000900090009111E-06</v>
+        <v>9.107117192597905E-06</v>
       </c>
       <c r="H3">
-        <v>2.848895228903942</v>
+        <v>0.690488540678493</v>
       </c>
       <c r="I3">
-        <v>2.859560869863998</v>
+        <v>0.701154743461806</v>
       </c>
       <c r="J3">
-        <v>14.32657954463213</v>
+        <v>13.21928419854286</v>
       </c>
       <c r="K3">
-        <v>14.50020738477517</v>
+        <v>13.21823101881298</v>
       </c>
       <c r="L3">
-        <v>14.42877431289633</v>
+        <v>15.47988597864269</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -929,28 +920,28 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D4">
         <v>7902.500436191599</v>
       </c>
       <c r="E4">
-        <v>5208.83563886513</v>
+        <v>5208.524662487952</v>
       </c>
       <c r="F4">
-        <v>6019.654233948884</v>
+        <v>6011.423300247496</v>
       </c>
       <c r="G4">
-        <v>1917.639012515311</v>
+        <v>1894.326103938308</v>
       </c>
       <c r="H4">
-        <v>932.3126391613539</v>
+        <v>1027.192213325919</v>
       </c>
       <c r="I4">
-        <v>288.561795551063</v>
+        <v>294.0955796716299</v>
       </c>
       <c r="J4">
-        <v>-1.114218364550064E-07</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -967,7 +958,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -982,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>268.737944383004</v>
+        <v>139.8760752624278</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1005,25 +996,25 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D6">
-        <v>7.192904025628666</v>
+        <v>7.192904025628586</v>
       </c>
       <c r="E6">
-        <v>5.154705166510123</v>
+        <v>5.15470516651013</v>
       </c>
       <c r="F6">
-        <v>3.773525970328305</v>
+        <v>3.773525970328306</v>
       </c>
       <c r="G6">
         <v>2.919320413190047</v>
       </c>
       <c r="H6">
-        <v>1.807460265963796</v>
+        <v>1.80746026596379</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.68394272515275</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1043,25 +1034,25 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D7">
-        <v>2.055115435893883</v>
+        <v>2.055115435893882</v>
       </c>
       <c r="E7">
         <v>1.472772904717178</v>
       </c>
       <c r="F7">
-        <v>1.078150277236658</v>
+        <v>1.078150277236659</v>
       </c>
       <c r="G7">
         <v>0.8340915466257279</v>
       </c>
       <c r="H7">
-        <v>0.5164172188467988</v>
+        <v>0.5164172188467986</v>
       </c>
       <c r="I7">
-        <v>0.2065855201289264</v>
+        <v>0.1954122071865001</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1081,25 +1072,25 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8">
-        <v>65.76369394860426</v>
+        <v>65.76369394860428</v>
       </c>
       <c r="E8">
         <v>47.12873295094968</v>
       </c>
       <c r="F8">
-        <v>34.50080887157306</v>
+        <v>34.50080887157307</v>
       </c>
       <c r="G8">
         <v>26.69092949202329</v>
       </c>
       <c r="H8">
-        <v>16.52535100309756</v>
+        <v>16.52535100309757</v>
       </c>
       <c r="I8">
-        <v>36.59441969201599</v>
+        <v>43.9677466169625</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1119,25 +1110,25 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D9">
-        <v>5.137788589734708</v>
+        <v>5.137788589734688</v>
       </c>
       <c r="E9">
-        <v>3.681932261792945</v>
+        <v>3.681932261792946</v>
       </c>
       <c r="F9">
-        <v>2.695375693091647</v>
+        <v>2.695375693091648</v>
       </c>
       <c r="G9">
-        <v>2.085228866564319</v>
+        <v>2.08522886656432</v>
       </c>
       <c r="H9">
         <v>1.291043047116997</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.4885305179662502</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1157,25 +1148,25 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D10">
         <v>914.5263689727781</v>
       </c>
       <c r="E10">
-        <v>655.3839425991441</v>
+        <v>655.3839425991443</v>
       </c>
       <c r="F10">
         <v>479.7768733703131</v>
       </c>
       <c r="G10">
-        <v>371.1707382484489</v>
+        <v>371.170738248449</v>
       </c>
       <c r="H10">
         <v>229.8056623868255</v>
       </c>
       <c r="I10">
-        <v>66.49175485231829</v>
+        <v>49.243876210998</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1195,25 +1186,25 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D11">
-        <v>31.85428925635518</v>
+        <v>31.85428925635521</v>
       </c>
       <c r="E11">
         <v>22.82798002311626</v>
       </c>
       <c r="F11">
-        <v>16.71132929716821</v>
+        <v>16.71132929716822</v>
       </c>
       <c r="G11">
         <v>12.92841897269878</v>
       </c>
       <c r="H11">
-        <v>8.004466892125382</v>
+        <v>8.004466892125379</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.028889211390748</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1233,25 +1224,25 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D12">
-        <v>1.027557717946942</v>
+        <v>1.027557717946923</v>
       </c>
       <c r="E12">
-        <v>0.7363864523585889</v>
+        <v>0.7363864523585892</v>
       </c>
       <c r="F12">
         <v>0.5390751386183293</v>
       </c>
       <c r="G12">
-        <v>0.417045773312864</v>
+        <v>0.4170457733128639</v>
       </c>
       <c r="H12">
         <v>0.2582086094233994</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.09770610359325003</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1271,7 +1262,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1289,16 +1280,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>8.136412844109771</v>
+        <v>7.853078222491824</v>
       </c>
       <c r="J13">
-        <v>0.1058064725497756</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.1058064725497237</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>-1.090038048712216E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1309,10 +1300,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D14">
-        <v>36.76205519441636</v>
+        <v>36.75589500175624</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1347,22 +1338,22 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D15">
-        <v>6.57324386903447</v>
+        <v>6.556194590887164</v>
       </c>
       <c r="E15">
-        <v>5.540027581195961</v>
+        <v>5.540027581195944</v>
       </c>
       <c r="F15">
-        <v>4.865424928501601</v>
+        <v>4.864104755510674</v>
       </c>
       <c r="G15">
-        <v>2.626137441103676</v>
+        <v>2.629008289954641</v>
       </c>
       <c r="H15">
-        <v>1.554108113875157</v>
+        <v>1.534351779244004</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1385,34 +1376,34 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D16">
-        <v>4595.256899302034</v>
+        <v>4594.486875219532</v>
       </c>
       <c r="E16">
-        <v>4368.756804078516</v>
+        <v>4219.824481649577</v>
       </c>
       <c r="F16">
-        <v>2432.712464250801</v>
+        <v>2432.052377755333</v>
       </c>
       <c r="G16">
-        <v>864.727012973009</v>
+        <v>828.2762180168768</v>
       </c>
       <c r="H16">
-        <v>274.3531215507623</v>
+        <v>767.1758896219901</v>
       </c>
       <c r="I16">
-        <v>190.9258699443784</v>
+        <v>163.9333972039852</v>
       </c>
       <c r="J16">
-        <v>0.9657662126097029</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.320413130076227</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>2.059699343201674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1423,34 +1414,34 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D17">
-        <v>4551.921600238585</v>
+        <v>4551.174785626888</v>
       </c>
       <c r="E17">
-        <v>4373.254730017081</v>
+        <v>4469.927210247779</v>
       </c>
       <c r="F17">
-        <v>2427.8470393223</v>
+        <v>2427.188272999822</v>
       </c>
       <c r="G17">
-        <v>1758.78429068962</v>
+        <v>1798.103063647922</v>
       </c>
       <c r="H17">
-        <v>1278.200884210519</v>
+        <v>765.6415378427461</v>
       </c>
       <c r="I17">
-        <v>343.3652401521634</v>
+        <v>351.7520727396446</v>
       </c>
       <c r="J17">
-        <v>5.982192151492226</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>5.627545234022315</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>4.994065505176575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1461,34 +1452,34 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D18">
-        <v>85.31105263157897</v>
+        <v>86.45263157894746</v>
       </c>
       <c r="E18">
-        <v>20.84823032187277</v>
+        <v>42.23157894736849</v>
       </c>
       <c r="F18">
-        <v>0.114</v>
+        <v>8.694736842105243</v>
       </c>
       <c r="G18">
-        <v>353.9204414008916</v>
+        <v>371.977779895366</v>
       </c>
       <c r="H18">
-        <v>306.5715761379916</v>
+        <v>312.7209497032711</v>
       </c>
       <c r="I18">
-        <v>136.4606455114152</v>
+        <v>481.1437837258916</v>
       </c>
       <c r="J18">
-        <v>108.5598101095153</v>
+        <v>371.3476006232856</v>
       </c>
       <c r="K18">
-        <v>450.7553475713631</v>
+        <v>564.3800725606102</v>
       </c>
       <c r="L18">
-        <v>592.1382704449726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1499,16 +1490,16 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D19">
-        <v>189.7413239473548</v>
+        <v>564.4618955069014</v>
       </c>
       <c r="E19">
-        <v>255.7471733079453</v>
+        <v>27.70298869101563</v>
       </c>
       <c r="F19">
-        <v>581.8922102617432</v>
+        <v>786.1152887076385</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1537,34 +1528,34 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D20">
-        <v>1417.251007232843</v>
+        <v>984.8381761268854</v>
       </c>
       <c r="E20">
-        <v>1190.660328429745</v>
+        <v>1406.463911844038</v>
       </c>
       <c r="F20">
-        <v>947.2578510289197</v>
+        <v>775.63930490055</v>
       </c>
       <c r="G20">
-        <v>881.2268945912685</v>
+        <v>862.9045267071637</v>
       </c>
       <c r="H20">
-        <v>754.1216299420694</v>
+        <v>728.9087737928836</v>
       </c>
       <c r="I20">
-        <v>711.1210036278095</v>
+        <v>318.7775159995102</v>
       </c>
       <c r="J20">
-        <v>357.6891034493104</v>
+        <v>73.8875002286409</v>
       </c>
       <c r="K20">
-        <v>488.7412800836723</v>
+        <v>397.2786476077615</v>
       </c>
       <c r="L20">
-        <v>736.6086874757329</v>
+        <v>1261.881557359165</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1575,13 +1566,13 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D21">
-        <v>1.141578947368421</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>9.078591773881168</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1590,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>20.39190980261318</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>38.95</v>
       </c>
       <c r="J21">
-        <v>29.16535688614654</v>
+        <v>43</v>
       </c>
       <c r="K21">
         <v>48.3</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1613,7 +1604,7 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D22">
         <v>172.7</v>
@@ -1651,25 +1642,25 @@
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D23">
-        <v>338.988947368421</v>
+        <v>337.8473684210527</v>
       </c>
       <c r="E23">
-        <v>426.8017696781272</v>
+        <v>405.4184210526316</v>
       </c>
       <c r="F23">
         <v>462.3052631578948</v>
       </c>
       <c r="G23">
-        <v>143.725420074388</v>
+        <v>131.0663209565607</v>
       </c>
       <c r="H23">
-        <v>170.8434238620083</v>
+        <v>165.9231511486558</v>
       </c>
       <c r="I23">
-        <v>95.50733597720318</v>
+        <v>109.6219648056692</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1689,25 +1680,25 @@
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D24">
-        <v>22.95842105263158</v>
+        <v>24.1</v>
       </c>
       <c r="E24">
-        <v>4.566651374504389</v>
+        <v>25.95</v>
       </c>
       <c r="F24">
         <v>27.8</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>19.8303327529905</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>19.58596617861959</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1727,7 +1718,7 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D25">
         <v>2088.78</v>
@@ -1739,22 +1730,22 @@
         <v>2231.010000000002</v>
       </c>
       <c r="G25">
-        <v>2312.232100598818</v>
+        <v>2306.228777245645</v>
       </c>
       <c r="H25">
-        <v>2361.386038879181</v>
+        <v>2296.070675155011</v>
       </c>
       <c r="I25">
-        <v>2108.779065216644</v>
+        <v>2103.230129418851</v>
       </c>
       <c r="J25">
-        <v>1635.912499730548</v>
+        <v>1662.766974646737</v>
       </c>
       <c r="K25">
-        <v>1343.459120457855</v>
+        <v>1347.539484496767</v>
       </c>
       <c r="L25">
-        <v>1269.963552261178</v>
+        <v>1319.126272289517</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1765,34 +1756,34 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D26">
         <v>173.640209608387</v>
       </c>
       <c r="E26">
-        <v>182.8141320302347</v>
+        <v>182.8141320302348</v>
       </c>
       <c r="F26">
-        <v>200.5605544520825</v>
+        <v>201.0359836247444</v>
       </c>
       <c r="G26">
-        <v>176.6639994051767</v>
+        <v>176.434716299767</v>
       </c>
       <c r="H26">
-        <v>263.7730297554891</v>
+        <v>263.4307452987746</v>
       </c>
       <c r="I26">
-        <v>272.7400490419777</v>
+        <v>272.1974769088055</v>
       </c>
       <c r="J26">
-        <v>348.8328003451386</v>
+        <v>348.494384969472</v>
       </c>
       <c r="K26">
-        <v>403.9068148638518</v>
+        <v>403.5683994881846</v>
       </c>
       <c r="L26">
-        <v>463.8499288453085</v>
+        <v>463.7070896734668</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1803,7 +1794,7 @@
         <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D27">
         <v>164.23</v>
@@ -1815,22 +1806,22 @@
         <v>583.6799999999999</v>
       </c>
       <c r="G27">
-        <v>1414.418209275783</v>
+        <v>1406.094709572</v>
       </c>
       <c r="H27">
-        <v>1996.59678670467</v>
+        <v>2124.162944419206</v>
       </c>
       <c r="I27">
-        <v>2802.63836549383</v>
+        <v>2788.431915551559</v>
       </c>
       <c r="J27">
-        <v>2695.926470614082</v>
+        <v>2656.518611890235</v>
       </c>
       <c r="K27">
-        <v>2744.673037734973</v>
+        <v>2804.01867229287</v>
       </c>
       <c r="L27">
-        <v>2821.641308051297</v>
+        <v>2688.698384267141</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1841,7 +1832,7 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D28">
         <v>0.2120264392857142</v>
@@ -1879,7 +1870,7 @@
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D29">
         <v>2.74</v>
@@ -1891,22 +1882,22 @@
         <v>20.46</v>
       </c>
       <c r="G29">
-        <v>20.83106956266571</v>
+        <v>17.38713216</v>
       </c>
       <c r="H29">
-        <v>20.19540681856814</v>
+        <v>17.38713216</v>
       </c>
       <c r="I29">
-        <v>20.84441342994111</v>
+        <v>14.57522588249026</v>
       </c>
       <c r="J29">
-        <v>12.02048357649657</v>
+        <v>7.328450574336687</v>
       </c>
       <c r="K29">
-        <v>11.96460809169657</v>
+        <v>4.238799245497202</v>
       </c>
       <c r="L29">
-        <v>0.1514903101946201</v>
+        <v>0.1409848416000033</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1917,25 +1908,25 @@
         <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D30">
-        <v>0.07294442666666676</v>
+        <v>1.72</v>
       </c>
       <c r="E30">
-        <v>0.06280218666666673</v>
+        <v>1.76</v>
       </c>
       <c r="F30">
-        <v>0.08450543013836495</v>
+        <v>1.85</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>7.794563904000001</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>0.7881477120000008</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>0.6042297600000006</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1955,34 +1946,34 @@
         <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D31">
-        <v>1.647055573333333</v>
+        <v>550.0799999999999</v>
       </c>
       <c r="E31">
-        <v>1.697197813333333</v>
+        <v>983.0199999999999</v>
       </c>
       <c r="F31">
-        <v>1.765494569861635</v>
+        <v>1530.69</v>
       </c>
       <c r="G31">
-        <v>6.739759968201257</v>
+        <v>2446.83603936997</v>
       </c>
       <c r="H31">
-        <v>0.7918058880000007</v>
+        <v>3044.924313962895</v>
       </c>
       <c r="I31">
-        <v>0.6042297600000006</v>
+        <v>3116.90328692239</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>3291.121341775226</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>3206.58453805248</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>3478.006985589041</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1993,34 +1984,34 @@
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D32">
-        <v>550.0799999999999</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>983.0200000000001</v>
+        <v>126.62</v>
       </c>
       <c r="F32">
-        <v>1530.69</v>
+        <v>259.57</v>
       </c>
       <c r="G32">
-        <v>2453.523701493425</v>
+        <v>971.9331803103522</v>
       </c>
       <c r="H32">
-        <v>3053.686704283175</v>
+        <v>2063.207114540748</v>
       </c>
       <c r="I32">
-        <v>3103.565185110881</v>
+        <v>2261.114934751126</v>
       </c>
       <c r="J32">
-        <v>3183.427562417467</v>
+        <v>3773.63741005377</v>
       </c>
       <c r="K32">
-        <v>3322.715267462608</v>
+        <v>4602.973682278327</v>
       </c>
       <c r="L32">
-        <v>3327.715060611516</v>
+        <v>5378.501160388674</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2031,34 +2022,34 @@
         <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>170.8961693548302</v>
       </c>
       <c r="E33">
-        <v>126.62</v>
+        <v>144.2328101938754</v>
       </c>
       <c r="F33">
-        <v>259.57</v>
+        <v>115.265892054874</v>
       </c>
       <c r="G33">
-        <v>958.1046611896801</v>
+        <v>137.3847573795672</v>
       </c>
       <c r="H33">
-        <v>2066.862676723293</v>
+        <v>104.8250637648002</v>
       </c>
       <c r="I33">
-        <v>2256.206964756356</v>
+        <v>112.2736551270872</v>
       </c>
       <c r="J33">
-        <v>3927.903523100539</v>
+        <v>105.3957071881122</v>
       </c>
       <c r="K33">
-        <v>4563.579632814826</v>
+        <v>117.78547354482</v>
       </c>
       <c r="L33">
-        <v>5558.497015726375</v>
+        <v>165.8463596979066</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2069,34 +2060,34 @@
         <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="D34">
-        <v>170.8961693548355</v>
+        <v>16200.96593949495</v>
       </c>
       <c r="E34">
-        <v>129.763152322537</v>
+        <v>16577.74886016954</v>
       </c>
       <c r="F34">
-        <v>116.1196871157874</v>
+        <v>17022.34928623178</v>
       </c>
       <c r="G34">
-        <v>138.2247746103479</v>
+        <v>16543.93763048078</v>
       </c>
       <c r="H34">
-        <v>105.6197176906513</v>
+        <v>16224.00036871568</v>
       </c>
       <c r="I34">
-        <v>111.8340179290579</v>
+        <v>17022.34928623179</v>
       </c>
       <c r="J34">
-        <v>106.7415987058536</v>
+        <v>17022.34928623179</v>
       </c>
       <c r="K34">
-        <v>119.1576446824881</v>
+        <v>17022.34928623179</v>
       </c>
       <c r="L34">
-        <v>166.6176079800389</v>
+        <v>17022.34928623178</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2107,34 +2098,34 @@
         <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D35">
-        <v>16200.96593949496</v>
+        <v>121.4954954838869</v>
       </c>
       <c r="E35">
-        <v>16304.90697674419</v>
+        <v>127.1084867608177</v>
       </c>
       <c r="F35">
-        <v>17067.54184416965</v>
+        <v>149.5079451655364</v>
       </c>
       <c r="G35">
-        <v>16563.31663264213</v>
+        <v>144.6373338425824</v>
       </c>
       <c r="H35">
-        <v>16233.57869287139</v>
+        <v>149.5079451655364</v>
       </c>
       <c r="I35">
-        <v>17067.54184416965</v>
+        <v>115.2508745369697</v>
       </c>
       <c r="J35">
-        <v>17067.54184416965</v>
+        <v>149.5079451655364</v>
       </c>
       <c r="K35">
-        <v>17067.54184416965</v>
+        <v>149.5079451655364</v>
       </c>
       <c r="L35">
-        <v>17067.54184416965</v>
+        <v>149.5079451655364</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2145,34 +2136,34 @@
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="D36">
-        <v>121.4954954838869</v>
+        <v>28.23347222222221</v>
       </c>
       <c r="E36">
-        <v>127.1084867608177</v>
+        <v>21.17510416666667</v>
       </c>
       <c r="F36">
-        <v>149.5079451655364</v>
+        <v>14.11673611111112</v>
       </c>
       <c r="G36">
-        <v>144.6373338425823</v>
+        <v>7.058368055555556</v>
       </c>
       <c r="H36">
-        <v>149.5079451655364</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>115.2508745369696</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>149.5079451655364</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>149.5079451655364</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>149.5079451655364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2183,19 +2174,19 @@
         <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="D37">
-        <v>28.23347222222223</v>
+        <v>2.908172221624048</v>
       </c>
       <c r="E37">
-        <v>21.17510416666667</v>
+        <v>15.2724101156782</v>
       </c>
       <c r="F37">
-        <v>14.11673611111112</v>
+        <v>19.53207899627794</v>
       </c>
       <c r="G37">
-        <v>7.058368055555557</v>
+        <v>0.1880208333333333</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2210,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>19.53207899627793</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2221,19 +2212,19 @@
         <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="D38">
-        <v>2.908172221624047</v>
+        <v>3.664258461538461</v>
       </c>
       <c r="E38">
-        <v>14.53087090336807</v>
+        <v>5.221568307692307</v>
       </c>
       <c r="F38">
-        <v>17.22284371704074</v>
+        <v>3.481045538461538</v>
       </c>
       <c r="G38">
-        <v>0.1880208333333333</v>
+        <v>1.740522769230768</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2248,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>17.22284371704073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2256,22 +2247,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D39">
-        <v>3.664258461538462</v>
+        <v>17.76944615384616</v>
       </c>
       <c r="E39">
-        <v>5.221568307692308</v>
+        <v>25.32146076923077</v>
       </c>
       <c r="F39">
-        <v>3.481045538461539</v>
+        <v>16.88097384615385</v>
       </c>
       <c r="G39">
-        <v>1.740522769230768</v>
+        <v>8.44048692307692</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2294,22 +2285,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="D40">
-        <v>17.76944615384616</v>
+        <v>0.6401415384615401</v>
       </c>
       <c r="E40">
-        <v>25.32146076923077</v>
+        <v>0.912201692307693</v>
       </c>
       <c r="F40">
-        <v>16.88097384615385</v>
+        <v>0.6081344615384616</v>
       </c>
       <c r="G40">
-        <v>8.44048692307692</v>
+        <v>0.3040672307692308</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2335,19 +2326,19 @@
         <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D41">
-        <v>0.6401415384615385</v>
+        <v>32.81610555316285</v>
       </c>
       <c r="E41">
-        <v>0.9122016923076924</v>
+        <v>38.7223239425262</v>
       </c>
       <c r="F41">
-        <v>0.6081344615384616</v>
+        <v>38.7223239425262</v>
       </c>
       <c r="G41">
-        <v>0.3040672307692308</v>
+        <v>9.062618726885061</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2362,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>38.7223239425262</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2373,19 +2364,19 @@
         <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D42">
-        <v>32.81610555316284</v>
+        <v>22.75739618016949</v>
       </c>
       <c r="E42">
-        <v>39.08827923043536</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>39.08827923043537</v>
+        <v>5.669435471209131</v>
       </c>
       <c r="G42">
-        <v>9.062618726885061</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2400,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>39.08827923043537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2408,25 +2399,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D43">
-        <v>7.257448142612688</v>
+        <v>31.4726860151779</v>
       </c>
       <c r="E43">
-        <v>12.07149131888242</v>
+        <v>12.75509470916454</v>
       </c>
       <c r="F43">
-        <v>19.45464402326218</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>19.11774564397322</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>3.452563381579023</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -2446,25 +2437,25 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D44">
-        <v>37.81235662708728</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>33.94013501251</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>6.528113883361309</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>11.5196672470095</v>
       </c>
       <c r="H44">
-        <v>2.401604878345189</v>
+        <v>1.437753022923842</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -2484,19 +2475,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1.179576282078913</v>
       </c>
       <c r="E45">
-        <v>12.30475685161445</v>
+        <v>48.04999999999999</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>40.05181832886449</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2525,19 +2516,19 @@
         <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D46">
-        <v>7.520399162267176</v>
+        <v>1.813684210526316</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>2.5845</v>
       </c>
       <c r="F46">
-        <v>17.24978436729246</v>
+        <v>1.723</v>
       </c>
       <c r="G46">
-        <v>28.14870136482504</v>
+        <v>0.8615</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2563,34 +2554,34 @@
         <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="D47">
-        <v>3.446</v>
+        <v>207.486</v>
       </c>
       <c r="E47">
-        <v>2.5845</v>
+        <v>217.79</v>
       </c>
       <c r="F47">
-        <v>0.9068421052631579</v>
+        <v>246.315</v>
       </c>
       <c r="G47">
-        <v>0.8615000000000002</v>
+        <v>311.3138830766898</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>324.7360539604554</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>324.7360539604554</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>324.7360539604554</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>324.7360539604554</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>324.7360539604554</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2601,34 +2592,34 @@
         <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="D48">
-        <v>207.486</v>
+        <v>21.256</v>
       </c>
       <c r="E48">
-        <v>217.79</v>
+        <v>9.033921052631579</v>
       </c>
       <c r="F48">
-        <v>246.3149999999999</v>
+        <v>13.15183742630149</v>
       </c>
       <c r="G48">
-        <v>312.7794794737472</v>
+        <v>8.103587426301493</v>
       </c>
       <c r="H48">
-        <v>326.3126473493439</v>
+        <v>1.992337426301491</v>
       </c>
       <c r="I48">
-        <v>326.3126473493441</v>
+        <v>1.992337426301491</v>
       </c>
       <c r="J48">
-        <v>326.312647349344</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>326.3126473493439</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>326.312647349344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2639,34 +2630,34 @@
         <v>38</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="D49">
-        <v>21.256</v>
+        <v>2036.593102239575</v>
       </c>
       <c r="E49">
-        <v>9.03392105263158</v>
+        <v>2084.957123121238</v>
       </c>
       <c r="F49">
-        <v>16.0169777082041</v>
+        <v>2048.971835272936</v>
       </c>
       <c r="G49">
-        <v>10.9687277082041</v>
+        <v>2160.015738523993</v>
       </c>
       <c r="H49">
-        <v>4.857477708204101</v>
+        <v>1300.634381546562</v>
       </c>
       <c r="I49">
-        <v>4.857477708204101</v>
+        <v>1516.780655941812</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1579.330200501362</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>1553.58627836264</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>1658.362174005784</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2677,34 +2668,34 @@
         <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="D50">
-        <v>2036.629723682474</v>
+        <v>16910.28040664012</v>
       </c>
       <c r="E50">
-        <v>2085.073733030084</v>
+        <v>14825.29170032893</v>
       </c>
       <c r="F50">
-        <v>2049.080164266808</v>
+        <v>12017.64838192721</v>
       </c>
       <c r="G50">
-        <v>2134.138024121408</v>
+        <v>21455.88372093023</v>
       </c>
       <c r="H50">
-        <v>1326.232889932181</v>
+        <v>21455.88372093023</v>
       </c>
       <c r="I50">
-        <v>1388.021822132968</v>
+        <v>21455.88372093023</v>
       </c>
       <c r="J50">
-        <v>1487.127999636154</v>
+        <v>21455.88372093023</v>
       </c>
       <c r="K50">
-        <v>1455.072958980649</v>
+        <v>21455.88372093023</v>
       </c>
       <c r="L50">
-        <v>1705.920350483075</v>
+        <v>21455.88372093023</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2715,34 +2706,34 @@
         <v>40</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D51">
-        <v>16904.1806400318</v>
+        <v>19.37985714285719</v>
       </c>
       <c r="E51">
-        <v>14820.71687537269</v>
+        <v>14.53489285714286</v>
       </c>
       <c r="F51">
-        <v>11966.45262621745</v>
+        <v>9.68992857142857</v>
       </c>
       <c r="G51">
-        <v>21455.88372093023</v>
+        <v>40.698</v>
       </c>
       <c r="H51">
-        <v>21455.88372093023</v>
+        <v>35.85303571428572</v>
       </c>
       <c r="I51">
-        <v>21455.88372093023</v>
+        <v>35.85303571428572</v>
       </c>
       <c r="J51">
-        <v>21455.88372093023</v>
+        <v>40.698</v>
       </c>
       <c r="K51">
-        <v>21455.88372093023</v>
+        <v>4.844964285714085</v>
       </c>
       <c r="L51">
-        <v>21455.88372093023</v>
+        <v>40.698</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2753,34 +2744,34 @@
         <v>41</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="D52">
-        <v>19.37985714285714</v>
+        <v>1.46208537161763</v>
       </c>
       <c r="E52">
-        <v>14.53489285714286</v>
+        <v>1.096564028713146</v>
       </c>
       <c r="F52">
-        <v>9.68992857142857</v>
+        <v>0.7310426858088023</v>
       </c>
       <c r="G52">
-        <v>40.698</v>
+        <v>0.3655213429044073</v>
       </c>
       <c r="H52">
-        <v>40.698</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>40.698</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>40.698</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>40.698</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>40.698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2791,19 +2782,19 @@
         <v>42</v>
       </c>
       <c r="C53" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="D53">
-        <v>1.724375335775338</v>
+        <v>40.34932999999999</v>
       </c>
       <c r="E53">
-        <v>1.293281501831501</v>
+        <v>4.571810000000005</v>
       </c>
       <c r="F53">
-        <v>0.8621876678876679</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>0.6269688339438336</v>
+        <v>10.19116</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -2826,37 +2817,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D54">
-        <v>40.34932999999999</v>
+        <v>181.334636</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>186.238786</v>
       </c>
       <c r="F54">
-        <v>2.628540000000002</v>
+        <v>180.134042</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>211.4928059999999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>221.683966</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>221.6839659999999</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>221.6839659999999</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>221.6839659999999</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>221.683966</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2864,37 +2855,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="D55">
-        <v>181.334636</v>
+        <v>15.665034</v>
       </c>
       <c r="E55">
-        <v>190.810596</v>
+        <v>13.483404</v>
       </c>
       <c r="F55">
-        <v>177.5055019999999</v>
+        <v>12.728958</v>
       </c>
       <c r="G55">
-        <v>221.683966</v>
+        <v>15.665034</v>
       </c>
       <c r="H55">
-        <v>221.683966</v>
+        <v>15.665034</v>
       </c>
       <c r="I55">
-        <v>221.6839659999999</v>
+        <v>15.665034</v>
       </c>
       <c r="J55">
-        <v>221.6839659999999</v>
+        <v>15.665034</v>
       </c>
       <c r="K55">
-        <v>221.6839659999999</v>
+        <v>15.665034</v>
       </c>
       <c r="L55">
-        <v>221.683966</v>
+        <v>15.665034</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2905,34 +2896,34 @@
         <v>43</v>
       </c>
       <c r="C56" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D56">
-        <v>15.665034</v>
+        <v>66.026</v>
       </c>
       <c r="E56">
-        <v>13.48340400000001</v>
+        <v>66.026</v>
       </c>
       <c r="F56">
-        <v>12.728958</v>
+        <v>13.65014831989247</v>
       </c>
       <c r="G56">
-        <v>15.665034</v>
+        <v>66.026</v>
       </c>
       <c r="H56">
-        <v>15.665034</v>
+        <v>66.026</v>
       </c>
       <c r="I56">
-        <v>15.665034</v>
+        <v>66.026</v>
       </c>
       <c r="J56">
-        <v>15.665034</v>
+        <v>66.026</v>
       </c>
       <c r="K56">
-        <v>15.665034</v>
+        <v>66.026</v>
       </c>
       <c r="L56">
-        <v>15.665034</v>
+        <v>66.026</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2943,34 +2934,34 @@
         <v>44</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D57">
-        <v>66.026</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>66.026</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>15.72042083333333</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>66.026</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>66.026</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>66.026</v>
+        <v>19.38425146843923</v>
       </c>
       <c r="J57">
-        <v>66.026</v>
+        <v>176.4036169342187</v>
       </c>
       <c r="K57">
-        <v>66.026</v>
+        <v>56.36402829131656</v>
       </c>
       <c r="L57">
-        <v>66.026</v>
+        <v>56.36402829131656</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2978,37 +2969,37 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>143.9490282913166</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>19.38425146843923</v>
       </c>
       <c r="G58">
-        <v>20.35413852472038</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>87.58499999999999</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>87.58499999999999</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>87.58499999999999</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>177.1679228736093</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>87.58499999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3016,37 +3007,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C59" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>56.38424593837537</v>
+        <v>163.3332797597558</v>
       </c>
       <c r="F59">
-        <v>56.38424593837537</v>
+        <v>157.0193654657795</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>61.34134458308078</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>163.3332797597558</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>157.0193654657795</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>120.0395886429022</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>120.0395886429022</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3054,37 +3045,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D60">
-        <v>143.9692459383754</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>106.9490338213804</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>120.7836769352339</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>42.92767308472416</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>54.68292287360925</v>
+        <v>13.07033717446297</v>
       </c>
       <c r="I60">
-        <v>70.21888905222883</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>75.74827975975577</v>
+        <v>0</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
       <c r="L60">
-        <v>70.21888905222883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3095,34 +3086,34 @@
         <v>45</v>
       </c>
       <c r="C61" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>0.2559717086834734</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1.448720240244215</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>12.60338306578126</v>
       </c>
       <c r="G61">
-        <v>31.35</v>
+        <v>12.60338306578126</v>
       </c>
       <c r="H61">
-        <v>34.90000000000001</v>
+        <v>12.60338306578126</v>
       </c>
       <c r="I61">
-        <v>19.36403382138042</v>
+        <v>12.60338306578126</v>
       </c>
       <c r="J61">
-        <v>13.83464311385346</v>
+        <v>12.60338306578126</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>12.60338306578126</v>
       </c>
       <c r="L61">
-        <v>19.36403382138042</v>
+        <v>12.60338306578126</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3133,34 +3124,34 @@
         <v>46</v>
       </c>
       <c r="C62" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D62">
-        <v>0.2357540616246499</v>
+        <v>5.649397147293032</v>
       </c>
       <c r="E62">
-        <v>1.448720240244215</v>
+        <v>7.674402341051636</v>
       </c>
       <c r="F62">
-        <v>11.83907712639076</v>
+        <v>9.427</v>
       </c>
       <c r="G62">
-        <v>11.83907712639076</v>
+        <v>4.889586416628296</v>
       </c>
       <c r="H62">
-        <v>11.83907712639076</v>
+        <v>0.1947015814467149</v>
       </c>
       <c r="I62">
-        <v>11.83907712639076</v>
+        <v>0.2639831805060916</v>
       </c>
       <c r="J62">
-        <v>11.83907712639076</v>
+        <v>0.3322723593951088</v>
       </c>
       <c r="K62">
-        <v>11.83907712639076</v>
+        <v>0.3985013069338333</v>
       </c>
       <c r="L62">
-        <v>11.83907712639076</v>
+        <v>0.3985013069338333</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3174,31 +3165,31 @@
         <v>117</v>
       </c>
       <c r="D63">
-        <v>9.427</v>
+        <v>181.7295367611745</v>
       </c>
       <c r="E63">
-        <v>9.427</v>
+        <v>479.0622631253568</v>
       </c>
       <c r="F63">
-        <v>9.423961829889782</v>
+        <v>736.8359629172849</v>
       </c>
       <c r="G63">
-        <v>4.851488197450214</v>
+        <v>758.6089035921624</v>
       </c>
       <c r="H63">
-        <v>0.1947015814467149</v>
+        <v>758.6089035921624</v>
       </c>
       <c r="I63">
-        <v>0.2639831805060914</v>
+        <v>758.6089035921621</v>
       </c>
       <c r="J63">
-        <v>0.3322723593951086</v>
+        <v>758.6089035921625</v>
       </c>
       <c r="K63">
-        <v>0.398501306933833</v>
+        <v>758.6089035921624</v>
       </c>
       <c r="L63">
-        <v>0.4553873254768943</v>
+        <v>758.6089035921621</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3209,34 +3200,34 @@
         <v>48</v>
       </c>
       <c r="C64" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="D64">
-        <v>176.1037639523273</v>
+        <v>3268.416000000001</v>
       </c>
       <c r="E64">
-        <v>477.2940989761992</v>
+        <v>3261.2</v>
       </c>
       <c r="F64">
-        <v>768.8729136691135</v>
+        <v>3036.045</v>
       </c>
       <c r="G64">
-        <v>768.8729136691135</v>
+        <v>3351.526080461195</v>
       </c>
       <c r="H64">
-        <v>768.8729136691139</v>
+        <v>4019.326904188783</v>
       </c>
       <c r="I64">
-        <v>768.8729136691135</v>
+        <v>3823.867159086463</v>
       </c>
       <c r="J64">
-        <v>768.8729136691135</v>
+        <v>3903.169467772735</v>
       </c>
       <c r="K64">
-        <v>768.8729136691137</v>
+        <v>3863.291798639376</v>
       </c>
       <c r="L64">
-        <v>768.8729136691135</v>
+        <v>3767.901988555439</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3247,34 +3238,34 @@
         <v>49</v>
       </c>
       <c r="C65" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="D65">
-        <v>3268.416</v>
+        <v>517.228</v>
       </c>
       <c r="E65">
-        <v>3261.2</v>
+        <v>379.371</v>
       </c>
       <c r="F65">
-        <v>3036.045000000001</v>
+        <v>384.232</v>
       </c>
       <c r="G65">
-        <v>3354.472068325735</v>
+        <v>363.9283848616464</v>
       </c>
       <c r="H65">
-        <v>4016.046087053591</v>
+        <v>502.4238104729682</v>
       </c>
       <c r="I65">
-        <v>3833.800880895447</v>
+        <v>185.3271430963919</v>
       </c>
       <c r="J65">
-        <v>4009.051114415225</v>
+        <v>0</v>
       </c>
       <c r="K65">
-        <v>3924.169930648739</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>3807.924886501092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3285,34 +3276,34 @@
         <v>50</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="D66">
-        <v>517.228</v>
+        <v>5882.633064516128</v>
       </c>
       <c r="E66">
-        <v>379.371</v>
+        <v>5202.9609300684</v>
       </c>
       <c r="F66">
-        <v>384.232</v>
+        <v>5199.108878432748</v>
       </c>
       <c r="G66">
-        <v>401.5507764107873</v>
+        <v>5397.659250568392</v>
       </c>
       <c r="H66">
-        <v>517.2279999999998</v>
+        <v>4209.214167863047</v>
       </c>
       <c r="I66">
-        <v>296.8319015794846</v>
+        <v>5021.876217624326</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>5533.241639387135</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>5596.554734196974</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>5678.159032573291</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3320,37 +3311,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C67" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D67">
-        <v>5882.633064516129</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>5202.962489013004</v>
+        <v>79.03521687131654</v>
       </c>
       <c r="F67">
-        <v>5199.110437377355</v>
+        <v>71.70288587347054</v>
       </c>
       <c r="G67">
-        <v>5382.816580244356</v>
+        <v>17.71982909335694</v>
       </c>
       <c r="H67">
-        <v>4341.544832302874</v>
+        <v>80.86174577208963</v>
       </c>
       <c r="I67">
-        <v>5149.025521070402</v>
+        <v>76.43216897240885</v>
       </c>
       <c r="J67">
-        <v>5513.940656830209</v>
+        <v>98.085365837702</v>
       </c>
       <c r="K67">
-        <v>5575.881256858855</v>
+        <v>77.17602288290219</v>
       </c>
       <c r="L67">
-        <v>5639.113033661111</v>
+        <v>59.34481867821402</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3358,37 +3349,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C68" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>79.03365859992773</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>71.70132760207876</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>17.21314670696716</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>78.35291632083761</v>
+        <v>100.9072467774015</v>
       </c>
       <c r="I68">
-        <v>76.43216897276297</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>98.274533717764</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>77.17602288290223</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>59.34481859159285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3396,37 +3387,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C69" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D69">
-        <v>39985.76964012937</v>
+        <v>42118.26218835742</v>
       </c>
       <c r="E69">
-        <v>28070.06470092325</v>
+        <v>28224.50294240941</v>
       </c>
       <c r="F69">
-        <v>27459.07101429677</v>
+        <v>27195.69695403731</v>
       </c>
       <c r="G69">
-        <v>28582.82308975929</v>
+        <v>27131.71142607845</v>
       </c>
       <c r="H69">
-        <v>31549.33458136649</v>
+        <v>32717.06000842595</v>
       </c>
       <c r="I69">
-        <v>19755.89351831699</v>
+        <v>20769.18070389029</v>
       </c>
       <c r="J69">
-        <v>21373.72899443814</v>
+        <v>21362.39784070377</v>
       </c>
       <c r="K69">
-        <v>26956.18917918933</v>
+        <v>25052.12839351136</v>
       </c>
       <c r="L69">
-        <v>26825.04224401118</v>
+        <v>28055.73229122706</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3434,19 +3425,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C70" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D70">
-        <v>15.38006294117647</v>
+        <v>15.38006294117642</v>
       </c>
       <c r="E70">
         <v>11.53504720588235</v>
       </c>
       <c r="F70">
-        <v>14.44506424069618</v>
+        <v>11.53504720588236</v>
       </c>
       <c r="G70">
         <v>3.845015735294115</v>
@@ -3472,22 +3463,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C71" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D71">
-        <v>74.81508835627973</v>
+        <v>46.97397724516863</v>
       </c>
       <c r="E71">
-        <v>54.49496193223442</v>
+        <v>33.6141285989011</v>
       </c>
       <c r="F71">
-        <v>47.69279086080586</v>
+        <v>26.81195752747253</v>
       </c>
       <c r="G71">
-        <v>18.16498731074472</v>
+        <v>11.20470953296705</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -3510,13 +3501,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C72" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D72">
-        <v>63.32993</v>
+        <v>63.32992999999998</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3548,10 +3539,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D73">
         <v>559.28979</v>
@@ -3572,7 +3563,7 @@
         <v>622.61972</v>
       </c>
       <c r="J73">
-        <v>622.61972</v>
+        <v>596.0279763955656</v>
       </c>
       <c r="K73">
         <v>622.6197200000001</v>
@@ -3586,10 +3577,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C74" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D74">
         <v>19.25628</v>
@@ -3610,7 +3601,7 @@
         <v>19.25628</v>
       </c>
       <c r="J74">
-        <v>19.25628</v>
+        <v>18.43385494006903</v>
       </c>
       <c r="K74">
         <v>19.25628</v>
@@ -3624,19 +3615,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C75" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D75">
-        <v>190.7167541769809</v>
+        <v>126.860685714286</v>
       </c>
       <c r="E75">
-        <v>235.1212087221834</v>
+        <v>249.3611976716122</v>
       </c>
       <c r="F75">
-        <v>182.5300912837368</v>
+        <v>217.6460262430408</v>
       </c>
       <c r="G75">
         <v>397.267</v>
@@ -3645,7 +3636,7 @@
         <v>397.267</v>
       </c>
       <c r="I75">
-        <v>305.5688213946466</v>
+        <v>249.9757727627602</v>
       </c>
       <c r="J75">
         <v>397.267</v>
@@ -3662,10 +3653,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C76" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -3674,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>8.580736842105239</v>
+        <v>0</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -3683,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>211.4202889563539</v>
+        <v>0</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -3692,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>702.5359717086835</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3700,19 +3691,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C77" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D77">
-        <v>1041.055777560359</v>
+        <v>449.4464345633619</v>
       </c>
       <c r="E77">
-        <v>655.9099470589081</v>
+        <v>962.1419057012756</v>
       </c>
       <c r="F77">
-        <v>92.24458183157623</v>
+        <v>0</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -3738,28 +3729,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C78" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D78">
-        <v>322.5962224396408</v>
+        <v>914.2055654366382</v>
       </c>
       <c r="E78">
-        <v>548.4250529410921</v>
+        <v>242.1930942987244</v>
       </c>
       <c r="F78">
-        <v>1067.757681326319</v>
+        <v>1168.583</v>
       </c>
       <c r="G78">
-        <v>1152.630924277764</v>
+        <v>1168.583000000001</v>
       </c>
       <c r="H78">
         <v>1363.652</v>
       </c>
       <c r="I78">
-        <v>1152.231711043646</v>
+        <v>1363.652</v>
       </c>
       <c r="J78">
         <v>1363.652</v>
@@ -3768,7 +3759,7 @@
         <v>1363.652</v>
       </c>
       <c r="L78">
-        <v>1329.416033821381</v>
+        <v>661.1160282913165</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3779,34 +3770,34 @@
         <v>57</v>
       </c>
       <c r="C79" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>523.97</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>523.97</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>523.97</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>523.97</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>523.97</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>523.97</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>523.97</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>523.97</v>
       </c>
       <c r="L79">
-        <v>34.23596617861958</v>
+        <v>523.97</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3817,34 +3808,34 @@
         <v>58</v>
       </c>
       <c r="C80" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D80">
-        <v>523.97</v>
+        <v>43.61390455624547</v>
       </c>
       <c r="E80">
-        <v>523.97</v>
+        <v>43.61390455624547</v>
       </c>
       <c r="F80">
-        <v>523.97</v>
+        <v>34.0432488962253</v>
       </c>
       <c r="G80">
-        <v>523.97</v>
+        <v>16.01965340593817</v>
       </c>
       <c r="H80">
-        <v>523.97</v>
+        <v>1.060317008667617</v>
       </c>
       <c r="I80">
-        <v>523.97</v>
+        <v>1.042126730318927</v>
       </c>
       <c r="J80">
-        <v>523.97</v>
+        <v>1.173342671132937</v>
       </c>
       <c r="K80">
-        <v>523.97</v>
+        <v>1.033099204881308</v>
       </c>
       <c r="L80">
-        <v>523.97</v>
+        <v>0.894409019599295</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3858,31 +3849,31 @@
         <v>117</v>
       </c>
       <c r="D81">
-        <v>43.61390455624548</v>
+        <v>82.60509544375455</v>
       </c>
       <c r="E81">
-        <v>43.61390455624548</v>
+        <v>111.9570954437545</v>
       </c>
       <c r="F81">
-        <v>33.81984862117135</v>
+        <v>135.0297511037747</v>
       </c>
       <c r="G81">
-        <v>15.8160591345053</v>
+        <v>135.0297511037747</v>
       </c>
       <c r="H81">
-        <v>0.7180325519530271</v>
+        <v>135.0297511037747</v>
       </c>
       <c r="I81">
-        <v>0.6998422736042542</v>
+        <v>135.0297511037747</v>
       </c>
       <c r="J81">
-        <v>0.8349272954662865</v>
+        <v>135.0297511037747</v>
       </c>
       <c r="K81">
-        <v>0.6946838292144829</v>
+        <v>135.0297511037747</v>
       </c>
       <c r="L81">
-        <v>0.6946838292144828</v>
+        <v>135.0297511037747</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3893,34 +3884,34 @@
         <v>60</v>
       </c>
       <c r="C82" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="D82">
-        <v>82.60509544375452</v>
+        <v>3307.747</v>
       </c>
       <c r="E82">
-        <v>111.9570954437545</v>
+        <v>3150.42</v>
       </c>
       <c r="F82">
-        <v>135.2531513788286</v>
+        <v>3264.414</v>
       </c>
       <c r="G82">
-        <v>135.2531513788286</v>
+        <v>2977.99888928767</v>
       </c>
       <c r="H82">
-        <v>135.2531513788286</v>
+        <v>3117.248691075534</v>
       </c>
       <c r="I82">
-        <v>135.2531513788286</v>
+        <v>2975.211675132306</v>
       </c>
       <c r="J82">
-        <v>135.2531513788286</v>
+        <v>3011.746352879744</v>
       </c>
       <c r="K82">
-        <v>135.2531513788286</v>
+        <v>3085.390503609574</v>
       </c>
       <c r="L82">
-        <v>135.2531513788286</v>
+        <v>3159.207528952184</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3931,34 +3922,34 @@
         <v>61</v>
       </c>
       <c r="C83" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="D83">
-        <v>3307.746999999999</v>
+        <v>949.6909999999999</v>
       </c>
       <c r="E83">
-        <v>3150.42</v>
+        <v>866.5870000000001</v>
       </c>
       <c r="F83">
-        <v>3264.414</v>
+        <v>847.413</v>
       </c>
       <c r="G83">
-        <v>2956.507097341434</v>
+        <v>521.4785052772116</v>
       </c>
       <c r="H83">
-        <v>3131.437318839144</v>
+        <v>669.708537893268</v>
       </c>
       <c r="I83">
-        <v>3044.840779448466</v>
+        <v>542.0789482690288</v>
       </c>
       <c r="J83">
-        <v>3085.620739925611</v>
+        <v>0</v>
       </c>
       <c r="K83">
-        <v>3115.36239890409</v>
+        <v>0</v>
       </c>
       <c r="L83">
-        <v>3194.29712983334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -3969,34 +3960,34 @@
         <v>62</v>
       </c>
       <c r="C84" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D84">
-        <v>949.6909999999999</v>
+        <v>79217.14186748749</v>
       </c>
       <c r="E84">
-        <v>866.5870000000001</v>
+        <v>70720.61381623764</v>
       </c>
       <c r="F84">
-        <v>847.413</v>
+        <v>64227.97532518752</v>
       </c>
       <c r="G84">
-        <v>518.705194156635</v>
+        <v>72919.24682763664</v>
       </c>
       <c r="H84">
-        <v>652.7598922991083</v>
+        <v>53669.12212993346</v>
       </c>
       <c r="I84">
-        <v>438.9689266999013</v>
+        <v>49908.77149977042</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>44856.31196536445</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>66891.53660741374</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>77603.84341784018</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4004,37 +3995,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C85" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D85">
-        <v>79217.14186748744</v>
+        <v>344.4223559455977</v>
       </c>
       <c r="E85">
-        <v>70720.61381623764</v>
+        <v>307.4809296358159</v>
       </c>
       <c r="F85">
-        <v>64227.97532518752</v>
+        <v>279.25206663125</v>
       </c>
       <c r="G85">
-        <v>72919.24682763667</v>
+        <v>317.0402035984201</v>
       </c>
       <c r="H85">
-        <v>53897.48757856616</v>
+        <v>3265.744515369086</v>
       </c>
       <c r="I85">
-        <v>50145.52440597226</v>
+        <v>216.994658694654</v>
       </c>
       <c r="J85">
-        <v>45093.06487156617</v>
+        <v>195.0274433276715</v>
       </c>
       <c r="K85">
-        <v>66891.53660741381</v>
+        <v>290.8327678583206</v>
       </c>
       <c r="L85">
-        <v>77603.84341784021</v>
+        <v>337.4080148601748</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4042,37 +4033,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C86" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D86">
-        <v>344.4223559455976</v>
+        <v>6544.024762966358</v>
       </c>
       <c r="E86">
-        <v>307.4809296358159</v>
+        <v>5842.137663080503</v>
       </c>
       <c r="F86">
-        <v>279.25206663125</v>
+        <v>5305.789265993752</v>
       </c>
       <c r="G86">
-        <v>317.0402035984204</v>
+        <v>6023.763868369982</v>
       </c>
       <c r="H86">
-        <v>3279.640461152705</v>
+        <v>4682.954399397179</v>
       </c>
       <c r="I86">
-        <v>218.0240191564011</v>
+        <v>4122.898515198427</v>
       </c>
       <c r="J86">
-        <v>196.0568037894181</v>
+        <v>3705.521423225759</v>
       </c>
       <c r="K86">
-        <v>290.8327678583208</v>
+        <v>5525.822589308092</v>
       </c>
       <c r="L86">
-        <v>337.4080148601749</v>
+        <v>6410.752282343319</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4083,34 +4074,34 @@
         <v>63</v>
       </c>
       <c r="C87" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D87">
-        <v>6544.024762966354</v>
+        <v>207130.0072474385</v>
       </c>
       <c r="E87">
-        <v>5842.137663080503</v>
+        <v>219100.3696534287</v>
       </c>
       <c r="F87">
-        <v>5305.789265993752</v>
+        <v>210419.4264362689</v>
       </c>
       <c r="G87">
-        <v>6023.763868369987</v>
+        <v>210507.3487231961</v>
       </c>
       <c r="H87">
-        <v>4702.880661275577</v>
+        <v>200044.0769094879</v>
       </c>
       <c r="I87">
-        <v>4142.456363971623</v>
+        <v>186974.0519282415</v>
       </c>
       <c r="J87">
-        <v>3725.079271998945</v>
+        <v>165990.7778931133</v>
       </c>
       <c r="K87">
-        <v>5525.822589308096</v>
+        <v>144215.4884857246</v>
       </c>
       <c r="L87">
-        <v>6410.752282343323</v>
+        <v>70920.35919515963</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4118,37 +4109,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C88" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D88">
-        <v>205539.0254968777</v>
+        <v>3815.332465031311</v>
       </c>
       <c r="E88">
-        <v>219100.3696534287</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>210419.4264362692</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>210507.3487231961</v>
+        <v>9597.399999999994</v>
       </c>
       <c r="H88">
-        <v>202046.5767545931</v>
+        <v>12181.8</v>
       </c>
       <c r="I88">
-        <v>192609.6247879048</v>
+        <v>14426.4</v>
       </c>
       <c r="J88">
-        <v>167993.2777382863</v>
+        <v>16671</v>
       </c>
       <c r="K88">
-        <v>138982.2667081321</v>
+        <v>13015.40788915904</v>
       </c>
       <c r="L88">
-        <v>73668.28400017734</v>
+        <v>21160.3</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4159,34 +4150,34 @@
         <v>64</v>
       </c>
       <c r="C89" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D89">
-        <v>5592.273121501929</v>
+        <v>7440.438491302202</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>8087.043507027059</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>4769.284525849926</v>
       </c>
       <c r="G89">
-        <v>9597.399999999998</v>
+        <v>8428.673142576765</v>
       </c>
       <c r="H89">
-        <v>12181.8</v>
+        <v>8880.115393079437</v>
       </c>
       <c r="I89">
-        <v>10368.68208763709</v>
+        <v>9277.09142336564</v>
       </c>
       <c r="J89">
-        <v>16671</v>
+        <v>9679.933362930611</v>
       </c>
       <c r="K89">
-        <v>18915.65</v>
+        <v>10042.64657414973</v>
       </c>
       <c r="L89">
-        <v>18074.47502482694</v>
+        <v>10345.59247099006</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4197,34 +4188,34 @@
         <v>65</v>
       </c>
       <c r="C90" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="D90">
-        <v>7440.438491302202</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>8087.043507027061</v>
+        <v>0.439</v>
       </c>
       <c r="F90">
-        <v>4769.284525849926</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>8428.673142576763</v>
+        <v>0.105</v>
       </c>
       <c r="H90">
-        <v>8880.115393079437</v>
+        <v>0.06937853016278178</v>
       </c>
       <c r="I90">
-        <v>9277.091423365639</v>
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>9679.933362930611</v>
+        <v>0</v>
       </c>
       <c r="K90">
-        <v>10042.64657414973</v>
+        <v>0</v>
       </c>
       <c r="L90">
-        <v>10345.59247099006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4232,25 +4223,25 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C91" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>0.5819999999999999</v>
       </c>
       <c r="E91">
-        <v>0.439</v>
+        <v>0</v>
       </c>
       <c r="F91">
         <v>0.369</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>0.03375706032556355</v>
       </c>
       <c r="H91">
-        <v>0.06937853016278178</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -4273,34 +4264,34 @@
         <v>66</v>
       </c>
       <c r="C92" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D92">
-        <v>0.582</v>
+        <v>225.296</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>231.634</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>225.5130000000001</v>
       </c>
       <c r="G92">
-        <v>0.1387570603255635</v>
+        <v>227.3270513978501</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>275.4420000000003</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>364.1119176913593</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>594.2865445467057</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>803.5184060902233</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>1585.204202629708</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4311,34 +4302,34 @@
         <v>67</v>
       </c>
       <c r="C93" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D93">
-        <v>225.296</v>
+        <v>66.91234564031245</v>
       </c>
       <c r="E93">
-        <v>231.6339999999999</v>
+        <v>102.5820087418906</v>
       </c>
       <c r="F93">
-        <v>225.5130000000001</v>
+        <v>102.5820087418906</v>
       </c>
       <c r="G93">
-        <v>227.3270513978465</v>
+        <v>102.5820087418906</v>
       </c>
       <c r="H93">
-        <v>246.7593669062944</v>
+        <v>102.5820087418906</v>
       </c>
       <c r="I93">
-        <v>335.4292846434053</v>
+        <v>102.5820087418906</v>
       </c>
       <c r="J93">
-        <v>565.6039114531156</v>
+        <v>102.5820087418906</v>
       </c>
       <c r="K93">
-        <v>803.5184060900917</v>
+        <v>99.36590973615404</v>
       </c>
       <c r="L93">
-        <v>1585.204202629707</v>
+        <v>102.5820087418906</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -4352,31 +4343,31 @@
         <v>104</v>
       </c>
       <c r="D94">
-        <v>66.91234564031244</v>
+        <v>229.1565474368436</v>
       </c>
       <c r="E94">
-        <v>102.5820087418905</v>
+        <v>284.0669110913908</v>
       </c>
       <c r="F94">
-        <v>102.5820087418905</v>
+        <v>252.4097255083492</v>
       </c>
       <c r="G94">
-        <v>102.5820087418905</v>
+        <v>205.7653683019905</v>
       </c>
       <c r="H94">
-        <v>102.5820087418905</v>
+        <v>284.0669110913908</v>
       </c>
       <c r="I94">
-        <v>102.5820087418905</v>
+        <v>284.0669110913908</v>
       </c>
       <c r="J94">
-        <v>102.5820087418905</v>
+        <v>284.0669110913908</v>
       </c>
       <c r="K94">
-        <v>99.36590973615321</v>
+        <v>284.0669110913908</v>
       </c>
       <c r="L94">
-        <v>102.5820087418905</v>
+        <v>284.0669110913908</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4387,34 +4378,34 @@
         <v>69</v>
       </c>
       <c r="C95" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D95">
-        <v>229.1565474368414</v>
+        <v>10.23630472252458</v>
       </c>
       <c r="E95">
-        <v>284.0669110913908</v>
+        <v>5.190823895803538</v>
       </c>
       <c r="F95">
-        <v>252.4097255083492</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>205.7653683019907</v>
+        <v>17.52352150537634</v>
       </c>
       <c r="H95">
-        <v>284.0669110913908</v>
+        <v>18.00541834677419</v>
       </c>
       <c r="I95">
-        <v>284.0669110913908</v>
+        <v>10.5141129032258</v>
       </c>
       <c r="J95">
-        <v>284.0669110913908</v>
+        <v>7.009408602150536</v>
       </c>
       <c r="K95">
-        <v>284.0669110913908</v>
+        <v>3.504704301075269</v>
       </c>
       <c r="L95">
-        <v>284.0669110913908</v>
+        <v>18.0054183467742</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4422,37 +4413,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D96">
-        <v>10.38164779160708</v>
+        <v>0.1453430690824991</v>
       </c>
       <c r="E96">
-        <v>4.541970908828096</v>
+        <v>0</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>17.52352150537634</v>
+        <v>8.761760752688172</v>
       </c>
       <c r="H96">
-        <v>18.00541834677419</v>
+        <v>8.27986391129032</v>
       </c>
       <c r="I96">
-        <v>10.5141129032258</v>
+        <v>15.77116935483871</v>
       </c>
       <c r="J96">
-        <v>10.15143985323136</v>
+        <v>19.27587365591398</v>
       </c>
       <c r="K96">
-        <v>3.504704301075268</v>
+        <v>22.78057795698925</v>
       </c>
       <c r="L96">
-        <v>18.00541834678549</v>
+        <v>8.27986391129015</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4463,34 +4454,34 @@
         <v>70</v>
       </c>
       <c r="C97" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>0.6488529869754422</v>
+        <v>0</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>8.761760752688172</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>8.27986391129032</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>15.77116935483871</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>16.13384240483315</v>
+        <v>0</v>
       </c>
       <c r="K97">
-        <v>22.78057795698924</v>
+        <v>0</v>
       </c>
       <c r="L97">
-        <v>8.27986391129062</v>
+        <v>2.443238547983166</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4498,10 +4489,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C98" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -4528,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="L98">
-        <v>2.443238547983166</v>
+        <v>19.76802097913653</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4539,7 +4530,7 @@
         <v>71</v>
       </c>
       <c r="C99" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -4548,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.01700220036809764</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -4563,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>0.499379611118061</v>
       </c>
       <c r="L99">
-        <v>19.76802097913653</v>
+        <v>0.4993796111180611</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -4574,10 +4565,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C100" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -4586,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>0.01700220036809764</v>
+        <v>0</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -4601,10 +4592,10 @@
         <v>0</v>
       </c>
       <c r="K100">
-        <v>0.499379611118061</v>
+        <v>4.040435035409767</v>
       </c>
       <c r="L100">
-        <v>0.4993796111180611</v>
+        <v>4.040435035409766</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -4615,7 +4606,7 @@
         <v>72</v>
       </c>
       <c r="C101" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -4633,16 +4624,16 @@
         <v>0</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>0.04539295941074181</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>0.3419945886001219</v>
       </c>
       <c r="K101">
-        <v>4.040435035409767</v>
+        <v>2.172687677242991</v>
       </c>
       <c r="L101">
-        <v>4.040435035409767</v>
+        <v>12.89185617373684</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -4653,7 +4644,7 @@
         <v>73</v>
       </c>
       <c r="C102" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -4668,19 +4659,19 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>0.00871468232940016</v>
       </c>
       <c r="I102">
-        <v>0.04539579279778554</v>
+        <v>0.008715448206862679</v>
       </c>
       <c r="J102">
-        <v>0.341995365264589</v>
+        <v>0.00871680736968285</v>
       </c>
       <c r="K102">
-        <v>0.3419949152189047</v>
+        <v>0.008709321187102914</v>
       </c>
       <c r="L102">
-        <v>0.3192982774417267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -4691,34 +4682,34 @@
         <v>74</v>
       </c>
       <c r="C103" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>1925.01904450974</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>3878.663459399527</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>2109.600477042338</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>3990.836262666394</v>
       </c>
       <c r="H103">
-        <v>0.008714401867230985</v>
+        <v>4705.7974120022</v>
       </c>
       <c r="I103">
-        <v>0.008716333640313727</v>
+        <v>5250.485056708872</v>
       </c>
       <c r="J103">
-        <v>0.008716030705212773</v>
+        <v>6154.152356678685</v>
       </c>
       <c r="K103">
-        <v>1.84105108329943</v>
+        <v>868.6780928006764</v>
       </c>
       <c r="L103">
-        <v>12.57255789629513</v>
+        <v>2925.301644151201</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -4726,37 +4717,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C104" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D104">
-        <v>3516.000795070563</v>
+        <v>1776.940656470529</v>
       </c>
       <c r="E104">
-        <v>3878.663459399532</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>2109.600477042338</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>3990.836262668869</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>4705.797412001724</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>1617.412034997806</v>
+        <v>0</v>
       </c>
       <c r="J104">
-        <v>6154.152356683896</v>
+        <v>0</v>
       </c>
       <c r="K104">
-        <v>6151.4530059955</v>
+        <v>5900.242110840958</v>
       </c>
       <c r="L104">
-        <v>162.4118407985819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -4767,34 +4758,34 @@
         <v>75</v>
       </c>
       <c r="C105" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>1811.470425971182</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1857.8</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1772.368108473762</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>1857.8</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1857.8</v>
       </c>
       <c r="I105">
-        <v>4057.717912362914</v>
+        <v>1857.8</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>1857.8</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>1857.8</v>
       </c>
       <c r="L105">
-        <v>3085.824975173055</v>
+        <v>1857.8</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -4805,34 +4796,34 @@
         <v>76</v>
       </c>
       <c r="C106" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D106">
-        <v>1811.470425971182</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>1857.8</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>1772.368108473762</v>
+        <v>0.1558802970586208</v>
       </c>
       <c r="G106">
-        <v>1857.8</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>1857.8</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>1857.8</v>
+        <v>0</v>
       </c>
       <c r="J106">
-        <v>1857.8</v>
+        <v>0</v>
       </c>
       <c r="K106">
-        <v>1857.8</v>
+        <v>4.578404029724688</v>
       </c>
       <c r="L106">
-        <v>1857.8</v>
+        <v>26.93572005808831</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -4840,10 +4831,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C107" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -4867,10 +4858,10 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>37.04345078595429</v>
       </c>
       <c r="L107">
-        <v>22.35731602836362</v>
+        <v>217.934462288169</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -4881,34 +4872,34 @@
         <v>77</v>
       </c>
       <c r="C108" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>3415.801411290323</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>3278.307568167485</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>3277.046479457808</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>3030.152375687086</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>3399.358729348434</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>3189.950672972555</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>3497.106544603928</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>3561.092829741939</v>
       </c>
       <c r="L108">
-        <v>180.8910115022148</v>
+        <v>3623.401809714512</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -4919,34 +4910,34 @@
         <v>78</v>
       </c>
       <c r="C109" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>198.398</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>153.3928948562347</v>
       </c>
       <c r="F109">
-        <v>0.1558802970586208</v>
+        <v>119.1336823162919</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>198.398</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>240.4512620367553</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>240.4512620367553</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>240.4512620367553</v>
       </c>
       <c r="K109">
-        <v>4.578404029724688</v>
+        <v>240.4512620367553</v>
       </c>
       <c r="L109">
-        <v>4.578404029724688</v>
+        <v>240.4512620367553</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -4954,10 +4945,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C110" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -4969,22 +4960,22 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>837.8423312033927</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>929.6373945092597</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>1049.559648980339</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>1085.00860937211</v>
       </c>
       <c r="K110">
-        <v>37.04345078595429</v>
+        <v>708.5523908304114</v>
       </c>
       <c r="L110">
-        <v>37.04345078595429</v>
+        <v>627.2151526546758</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -4995,34 +4986,34 @@
         <v>79</v>
       </c>
       <c r="C111" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D111">
-        <v>3415.801411290322</v>
+        <v>630.2820207092522</v>
       </c>
       <c r="E111">
-        <v>3271.042644755174</v>
+        <v>597.8312612959793</v>
       </c>
       <c r="F111">
-        <v>3269.781556045496</v>
+        <v>546.7489429078532</v>
       </c>
       <c r="G111">
-        <v>3033.469890895334</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>3364.442375934077</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>3191.715571288395</v>
+        <v>19.93354853618326</v>
       </c>
       <c r="J111">
-        <v>3556.626799931646</v>
+        <v>0</v>
       </c>
       <c r="K111">
-        <v>3554.32020675377</v>
+        <v>376.4562185416989</v>
       </c>
       <c r="L111">
-        <v>3620.869512399945</v>
+        <v>410.793159212964</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5033,34 +5024,34 @@
         <v>80</v>
       </c>
       <c r="C112" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="D112">
-        <v>198.398</v>
+        <v>335.6419867029047</v>
       </c>
       <c r="E112">
-        <v>159.8589327292203</v>
+        <v>316.9934091829123</v>
       </c>
       <c r="F112">
-        <v>144.4172962968809</v>
+        <v>264.2509092786013</v>
       </c>
       <c r="G112">
-        <v>198.398</v>
+        <v>335.9201862580109</v>
       </c>
       <c r="H112">
-        <v>240.0341659807971</v>
+        <v>330.8543749512572</v>
       </c>
       <c r="I112">
-        <v>240.0341659807971</v>
+        <v>343.1161244202397</v>
       </c>
       <c r="J112">
-        <v>240.0341659807971</v>
+        <v>382.7519976641177</v>
       </c>
       <c r="K112">
-        <v>238.6502800033214</v>
+        <v>290.8432737706867</v>
       </c>
       <c r="L112">
-        <v>240.0341659807971</v>
+        <v>213.1624009662754</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5071,34 +5062,34 @@
         <v>81</v>
       </c>
       <c r="C113" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>122.6855908066109</v>
       </c>
       <c r="E113">
-        <v>598.0665278566165</v>
+        <v>63.39351851851853</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>50.71481481481518</v>
       </c>
       <c r="G113">
-        <v>127.5270315318309</v>
+        <v>103.4647125423729</v>
       </c>
       <c r="H113">
-        <v>792.4881697008894</v>
+        <v>25.35740740740741</v>
       </c>
       <c r="I113">
-        <v>1051.603043254541</v>
+        <v>12.67870370370371</v>
       </c>
       <c r="J113">
-        <v>939.1979622407168</v>
+        <v>0</v>
       </c>
       <c r="K113">
-        <v>799.8406008448751</v>
+        <v>0</v>
       </c>
       <c r="L113">
-        <v>1043.918370469317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5106,37 +5097,37 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C114" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D114">
-        <v>633.5159915125577</v>
+        <v>175.228921231177</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>153.2189611228842</v>
       </c>
       <c r="F114">
-        <v>546.5199015001679</v>
+        <v>128.8994619022601</v>
       </c>
       <c r="G114">
-        <v>710.471</v>
+        <v>108.0261230627175</v>
       </c>
       <c r="H114">
-        <v>134.8794626758166</v>
+        <v>81.89522442070363</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>59.57681455302981</v>
       </c>
       <c r="J114">
-        <v>144.0705282100173</v>
+        <v>36.46792442830173</v>
       </c>
       <c r="K114">
-        <v>268.271698477579</v>
+        <v>35.50764701298647</v>
       </c>
       <c r="L114">
-        <v>0</v>
+        <v>35.51856254037263</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5144,37 +5135,37 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C115" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="D115">
-        <v>323.9748728964806</v>
+        <v>27.03905787008804</v>
       </c>
       <c r="E115">
-        <v>316.9866344522188</v>
+        <v>295.9062058484403</v>
       </c>
       <c r="F115">
-        <v>264.2441345478977</v>
+        <v>332.824619880741</v>
       </c>
       <c r="G115">
-        <v>337.681</v>
+        <v>356.8796814612318</v>
       </c>
       <c r="H115">
-        <v>319.9470041284338</v>
+        <v>204.9865194285985</v>
       </c>
       <c r="I115">
-        <v>343.1161244217795</v>
+        <v>173.907298711235</v>
       </c>
       <c r="J115">
-        <v>382.7519976656327</v>
+        <v>140.9854552307661</v>
       </c>
       <c r="K115">
-        <v>290.8432737706871</v>
+        <v>138.3462021802989</v>
       </c>
       <c r="L115">
-        <v>213.162400504769</v>
+        <v>134.6027523062949</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5185,25 +5176,25 @@
         <v>83</v>
       </c>
       <c r="C116" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D116">
-        <v>120.183867116448</v>
+        <v>310.9491655060126</v>
       </c>
       <c r="E116">
-        <v>63.39351851851849</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>50.71481481481482</v>
+        <v>0</v>
       </c>
       <c r="G116">
-        <v>104.3764037476459</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>25.35740740740736</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>12.6787037037037</v>
+        <v>0</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -5223,34 +5214,34 @@
         <v>84</v>
       </c>
       <c r="C117" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D117">
-        <v>175.2289212311775</v>
+        <v>407.007473448248</v>
       </c>
       <c r="E117">
-        <v>153.2189611228845</v>
+        <v>358.1875168502773</v>
       </c>
       <c r="F117">
-        <v>128.8994619022621</v>
+        <v>347.1829042348286</v>
       </c>
       <c r="G117">
-        <v>108.0261230627175</v>
+        <v>424.3183701604054</v>
       </c>
       <c r="H117">
-        <v>81.89522442070364</v>
+        <v>101.0436740135328</v>
       </c>
       <c r="I117">
-        <v>59.5768145093778</v>
+        <v>50.87246516931925</v>
       </c>
       <c r="J117">
-        <v>36.4679244283016</v>
+        <v>7.045245787654321</v>
       </c>
       <c r="K117">
-        <v>35.50764701298646</v>
+        <v>7.045245787654321</v>
       </c>
       <c r="L117">
-        <v>35.51856250601718</v>
+        <v>13.3888264168487</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5261,10 +5252,10 @@
         <v>84</v>
       </c>
       <c r="C118" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>52.88797677576102</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -5276,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>13.12996893961161</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -5288,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="L118">
-        <v>3.281936426387244E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5296,37 +5287,37 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C119" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="D119">
-        <v>26.86115133039972</v>
+        <v>0</v>
       </c>
       <c r="E119">
-        <v>294.8612484366309</v>
+        <v>46.54414060766315</v>
       </c>
       <c r="F119">
-        <v>331.9388254907391</v>
+        <v>45.1141626971811</v>
       </c>
       <c r="G119">
-        <v>355.9979264862553</v>
+        <v>55.13741533157808</v>
       </c>
       <c r="H119">
-        <v>215.5547819854887</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>177.1049357440891</v>
+        <v>0</v>
       </c>
       <c r="J119">
-        <v>142.7526750469806</v>
+        <v>0</v>
       </c>
       <c r="K119">
-        <v>140.1108015865503</v>
+        <v>0</v>
       </c>
       <c r="L119">
-        <v>135.4967568267002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5337,34 +5328,34 @@
         <v>85</v>
       </c>
       <c r="C120" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D120">
-        <v>308.9032402995968</v>
+        <v>65.47464000000001</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>142.4188923778542</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>86.74172504862996</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>177.7361361552813</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>225.4834271274456</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>233.5181629370132</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>157.9542561167668</v>
       </c>
       <c r="K120">
-        <v>0</v>
+        <v>252.0000789422945</v>
       </c>
       <c r="L120">
-        <v>0</v>
+        <v>142.7611690063069</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -5372,37 +5363,37 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C121" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="D121">
-        <v>392.2472454332025</v>
+        <v>51.44435999999998</v>
       </c>
       <c r="E121">
-        <v>353.2118059314246</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>356.6811404101912</v>
+        <v>55.67716732922421</v>
       </c>
       <c r="G121">
-        <v>373.5155276745986</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>119.3663441457285</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>50.87246516931925</v>
+        <v>15.5395872620679</v>
       </c>
       <c r="J121">
-        <v>18.51984048740741</v>
+        <v>94.04582282552778</v>
       </c>
       <c r="K121">
-        <v>9.002288948148149</v>
+        <v>0</v>
       </c>
       <c r="L121">
-        <v>16.14309967885437</v>
+        <v>112.1694899335268</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5413,34 +5404,34 @@
         <v>86</v>
       </c>
       <c r="C122" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>45.89757930182354</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>46.34839677646553</v>
+        <v>122.5792776024912</v>
       </c>
       <c r="G122">
-        <v>48.5359160255128</v>
+        <v>122.5792776024912</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>122.5792776024912</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>122.5792776024912</v>
       </c>
       <c r="J122">
-        <v>2.406532944691358</v>
+        <v>122.5792776024912</v>
       </c>
       <c r="K122">
-        <v>0</v>
+        <v>114.31211789126</v>
       </c>
       <c r="L122">
-        <v>2.097690918721189</v>
+        <v>122.5792776024912</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5454,10 +5445,10 @@
         <v>139</v>
       </c>
       <c r="D123">
-        <v>50.96998104499241</v>
+        <v>84.17200000000001</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>84.17200000000001</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -5466,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>15.51088087769353</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -5489,34 +5480,34 @@
         <v>87</v>
       </c>
       <c r="C124" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D124">
-        <v>65.47464000000001</v>
+        <v>394.4639999999999</v>
       </c>
       <c r="E124">
-        <v>135.2347499856055</v>
+        <v>397.2223370753362</v>
       </c>
       <c r="F124">
-        <v>83.7903899856055</v>
+        <v>317.8492847592612</v>
       </c>
       <c r="G124">
-        <v>126.289073980978</v>
+        <v>76.26890206295579</v>
       </c>
       <c r="H124">
-        <v>129.5543663671696</v>
+        <v>39.66750885389543</v>
       </c>
       <c r="I124">
-        <v>198.7068841562422</v>
+        <v>3.066115644835042</v>
       </c>
       <c r="J124">
-        <v>244.205979903608</v>
+        <v>0</v>
       </c>
       <c r="K124">
-        <v>251.9975693308</v>
+        <v>0</v>
       </c>
       <c r="L124">
-        <v>254.930641491793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5524,34 +5515,34 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C125" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D125">
-        <v>51.44435999999998</v>
+        <v>0</v>
       </c>
       <c r="E125">
-        <v>14.39094641726146</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>65.83530641726144</v>
+        <v>0</v>
       </c>
       <c r="G125">
-        <v>51.44435999999998</v>
+        <v>14.95589914807317</v>
       </c>
       <c r="H125">
-        <v>101.7927164313475</v>
+        <v>86.35589914807319</v>
       </c>
       <c r="I125">
-        <v>50.34835643134754</v>
+        <v>0</v>
       </c>
       <c r="J125">
-        <v>7.791589427191936</v>
+        <v>107.5487824424956</v>
       </c>
       <c r="K125">
-        <v>0</v>
+        <v>86.35589914807319</v>
       </c>
       <c r="L125">
         <v>0</v>
@@ -5565,34 +5556,34 @@
         <v>88</v>
       </c>
       <c r="C126" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>715.457600712615</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>884.6358991480733</v>
       </c>
       <c r="F126">
-        <v>121.0116151113772</v>
+        <v>661.5849465678893</v>
       </c>
       <c r="G126">
-        <v>121.0116151113772</v>
+        <v>798.28</v>
       </c>
       <c r="H126">
-        <v>121.0116151113772</v>
+        <v>798.28</v>
       </c>
       <c r="I126">
-        <v>121.0116151113772</v>
+        <v>884.6358991480731</v>
       </c>
       <c r="J126">
-        <v>121.0116151113772</v>
+        <v>777.0871167055775</v>
       </c>
       <c r="K126">
-        <v>121.0116151113772</v>
+        <v>798.28</v>
       </c>
       <c r="L126">
-        <v>121.0116151113772</v>
+        <v>884.6358991480733</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5603,19 +5594,19 @@
         <v>88</v>
       </c>
       <c r="C127" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D127">
-        <v>84.17200000000001</v>
+        <v>25.72042371792109</v>
       </c>
       <c r="E127">
-        <v>84.17200000000001</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>29.14818167113552</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -5641,34 +5632,34 @@
         <v>89</v>
       </c>
       <c r="C128" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D128">
-        <v>394.4639999999999</v>
+        <v>10.67398000418939</v>
       </c>
       <c r="E128">
-        <v>400.9169293048931</v>
+        <v>12.46476234877798</v>
       </c>
       <c r="F128">
-        <v>317.8492847592603</v>
+        <v>16.28352015977789</v>
       </c>
       <c r="G128">
-        <v>76.26890206295579</v>
+        <v>29.96969387041698</v>
       </c>
       <c r="H128">
-        <v>39.66750885389541</v>
+        <v>33.63112443700505</v>
       </c>
       <c r="I128">
-        <v>3.066115644835045</v>
+        <v>37.34931679414743</v>
       </c>
       <c r="J128">
-        <v>0</v>
+        <v>36.68311703447742</v>
       </c>
       <c r="K128">
-        <v>0</v>
+        <v>37.01009610626824</v>
       </c>
       <c r="L128">
-        <v>0</v>
+        <v>37.03051942992435</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -5679,34 +5670,34 @@
         <v>90</v>
       </c>
       <c r="C129" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>1.791145833333334</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>32.69051040259172</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>31.3707977365435</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>31.79454387766656</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>0.3142361111111111</v>
       </c>
       <c r="I129">
-        <v>79.17672955502761</v>
+        <v>31.49641318036949</v>
       </c>
       <c r="J129">
-        <v>459.1551898904849</v>
+        <v>0</v>
       </c>
       <c r="K129">
-        <v>79.17672955502761</v>
+        <v>0</v>
       </c>
       <c r="L129">
-        <v>79.17672955502761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -5714,37 +5705,37 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C130" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D130">
-        <v>724.3654137004286</v>
+        <v>4145.937</v>
       </c>
       <c r="E130">
-        <v>829.4067295550276</v>
+        <v>4145.129</v>
       </c>
       <c r="F130">
-        <v>621.2635996997759</v>
+        <v>4067.867</v>
       </c>
       <c r="G130">
-        <v>834.2054309198527</v>
+        <v>4244.099259622104</v>
       </c>
       <c r="H130">
-        <v>877.4567295550276</v>
+        <v>4318.688531747288</v>
       </c>
       <c r="I130">
-        <v>798.28</v>
+        <v>4234.852111786845</v>
       </c>
       <c r="J130">
-        <v>418.3015396645426</v>
+        <v>4270.909631192605</v>
       </c>
       <c r="K130">
-        <v>798.28</v>
+        <v>4268.837129902938</v>
       </c>
       <c r="L130">
-        <v>798.28</v>
+        <v>4264.882837794886</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -5752,37 +5743,37 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C131" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D131">
-        <v>19.37960083773282</v>
+        <v>1029.594289375487</v>
       </c>
       <c r="E131">
-        <v>48.05</v>
+        <v>1012.043078947368</v>
       </c>
       <c r="F131">
-        <v>51.95021563270754</v>
+        <v>964.4151625736984</v>
       </c>
       <c r="G131">
-        <v>43.25129863517498</v>
+        <v>1042.388881943843</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>745.7742824979814</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>934.4778195837746</v>
       </c>
       <c r="J131">
-        <v>0</v>
+        <v>612.4628398646558</v>
       </c>
       <c r="K131">
-        <v>0</v>
+        <v>590.3137673169181</v>
       </c>
       <c r="L131">
-        <v>0</v>
+        <v>598.9803561524927</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -5790,37 +5781,37 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C132" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="D132">
-        <v>7.945450349672964</v>
+        <v>0</v>
       </c>
       <c r="E132">
-        <v>12.03461079571175</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>16.19971841345426</v>
+        <v>0</v>
       </c>
       <c r="G132">
-        <v>29.88589212409336</v>
+        <v>1.606961971436453E-06</v>
       </c>
       <c r="H132">
-        <v>33.54732269068143</v>
+        <v>10.41527491073119</v>
       </c>
       <c r="I132">
-        <v>37.26551504782353</v>
+        <v>10.41527491073118</v>
       </c>
       <c r="J132">
-        <v>36.87428339287222</v>
+        <v>198.7473001379223</v>
       </c>
       <c r="K132">
-        <v>37.02754784071627</v>
+        <v>192.1877670689323</v>
       </c>
       <c r="L132">
-        <v>37.03051942992435</v>
+        <v>188.3320252271874</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -5828,28 +5819,28 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C133" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="D133">
-        <v>2.007</v>
+        <v>0</v>
       </c>
       <c r="E133">
-        <v>32.70607689280094</v>
+        <v>0.09000000000033062</v>
       </c>
       <c r="F133">
-        <v>0.6284722222222222</v>
+        <v>0.09000000000000002</v>
       </c>
       <c r="G133">
-        <v>31.80695326286868</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="H133">
-        <v>0.3142361111111111</v>
+        <v>0.09000000000000002</v>
       </c>
       <c r="I133">
-        <v>31.29612550391205</v>
+        <v>0</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -5858,158 +5849,6 @@
         <v>0</v>
       </c>
       <c r="L133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12">
-      <c r="A134" s="1">
-        <v>132</v>
-      </c>
-      <c r="B134" t="s">
-        <v>93</v>
-      </c>
-      <c r="C134" t="s">
-        <v>97</v>
-      </c>
-      <c r="D134">
-        <v>4145.937000000001</v>
-      </c>
-      <c r="E134">
-        <v>4145.129</v>
-      </c>
-      <c r="F134">
-        <v>4067.867</v>
-      </c>
-      <c r="G134">
-        <v>4290.528300394784</v>
-      </c>
-      <c r="H134">
-        <v>4308.3822273448</v>
-      </c>
-      <c r="I134">
-        <v>4221.45673558887</v>
-      </c>
-      <c r="J134">
-        <v>4202.664081684316</v>
-      </c>
-      <c r="K134">
-        <v>4267.82348356023</v>
-      </c>
-      <c r="L134">
-        <v>4261.545618743835</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="B135" t="s">
-        <v>94</v>
-      </c>
-      <c r="C135" t="s">
-        <v>130</v>
-      </c>
-      <c r="D135">
-        <v>1034.397807068359</v>
-      </c>
-      <c r="E135">
-        <v>1012.342078947368</v>
-      </c>
-      <c r="F135">
-        <v>961.5500222917956</v>
-      </c>
-      <c r="G135">
-        <v>1042.035895616496</v>
-      </c>
-      <c r="H135">
-        <v>756.9011701463714</v>
-      </c>
-      <c r="I135">
-        <v>949.1133847419443</v>
-      </c>
-      <c r="J135">
-        <v>626.1159240931306</v>
-      </c>
-      <c r="K135">
-        <v>599.1285008922567</v>
-      </c>
-      <c r="L135">
-        <v>608.2320034900049</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="B136" t="s">
-        <v>95</v>
-      </c>
-      <c r="C136" t="s">
-        <v>135</v>
-      </c>
-      <c r="D136">
-        <v>0</v>
-      </c>
-      <c r="E136">
-        <v>0</v>
-      </c>
-      <c r="F136">
-        <v>0</v>
-      </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-      <c r="H136">
-        <v>43.06988421882529</v>
-      </c>
-      <c r="I136">
-        <v>43.06988421882529</v>
-      </c>
-      <c r="J136">
-        <v>215.4996071481115</v>
-      </c>
-      <c r="K136">
-        <v>211.6077707641294</v>
-      </c>
-      <c r="L136">
-        <v>172.429722929287</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137" t="s">
-        <v>96</v>
-      </c>
-      <c r="C137" t="s">
-        <v>136</v>
-      </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-      <c r="E137">
-        <v>0.08999999999998176</v>
-      </c>
-      <c r="F137">
-        <v>0.09</v>
-      </c>
-      <c r="G137">
-        <v>0.09000000000000001</v>
-      </c>
-      <c r="H137">
-        <v>0.09000000000000002</v>
-      </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
-      <c r="J137">
-        <v>0</v>
-      </c>
-      <c r="K137">
-        <v>0</v>
-      </c>
-      <c r="L137">
         <v>0</v>
       </c>
     </row>
@@ -6031,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
